--- a/assets/examples/xlsx/RS0005/residential-motor.RS0005.xlsx
+++ b/assets/examples/xlsx/RS0005/residential-motor.RS0005.xlsx
@@ -772,7 +772,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -810,7 +810,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>48511b7d-9a5b-4dcc-b021-16ae6bf99d87</t>
+          <t>819caeda-28c6-4266-aaab-7a19e3802f1a</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -829,7 +829,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-11-23T11:45Z</t>
+          <t>2024-02-22T15:25Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -962,7 +962,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
   </dataValidations>
